--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.029899999999994</v>
+        <v>-7.137099999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.568399999999994</v>
+        <v>-6.892899999999994</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.7904</v>
+        <v>5.9689</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.012099999999998</v>
+        <v>4.969399999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.283300000000001</v>
+        <v>-7.4749</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.846599999999998</v>
+        <v>5.313299999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.637100000000011</v>
+        <v>-8.45820000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.495400000000002</v>
+        <v>6.175700000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.323900000000005</v>
+        <v>6.112900000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.341100000000006</v>
+        <v>6.165800000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.333999999999996</v>
+        <v>-8.325899999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.644599999999996</v>
+        <v>6.5665</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.634999999999993</v>
+        <v>-8.386099999999994</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.212000000000005</v>
+        <v>8.9877</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.714899999999997</v>
+        <v>-7.476499999999998</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.1457</v>
+        <v>5.2648</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.268699999999997</v>
+        <v>-8.056500000000003</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.241599999999995</v>
+        <v>-8.014699999999996</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.958000000000002</v>
+        <v>-7.849599999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.874200000000003</v>
+        <v>6.8546</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.420699999999997</v>
+        <v>-7.605499999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.743199999999999</v>
+        <v>4.830399999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.948199999999997</v>
+        <v>5.5198</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.1027</v>
+        <v>5.1605</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.5016</v>
+        <v>-8.4214</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.338799999999993</v>
+        <v>5.438699999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.300299999999997</v>
+        <v>5.233499999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.313800000000003</v>
+        <v>5.158600000000002</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.529000000000002</v>
+        <v>8.387700000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.933799999999994</v>
+        <v>-7.065399999999991</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.198999999999996</v>
+        <v>5.237399999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.245899999999999</v>
+        <v>-8.909300000000002</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.986000000000001</v>
+        <v>4.944800000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.300600000000002</v>
+        <v>5.364500000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.316800000000002</v>
+        <v>5.709800000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.548199999999995</v>
+        <v>4.651899999999995</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.039800000000001</v>
+        <v>-8.057700000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.807899999999998</v>
+        <v>-7.478099999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
